--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/2.XulyBH/XLBH2212_NhatMinh.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Nâng cấp FW module SIM</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
   </si>
 </sst>
 </file>
@@ -725,29 +728,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,10 +749,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,39 +1115,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1192,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1268,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1310,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1341,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1428,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1517,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1546,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,6 +3320,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3328,13 +3338,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3381,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3458,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3534,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3576,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3607,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3636,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3665,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3694,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3783,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3812,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3841,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3870,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,13 +5586,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5601,6 +5597,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5647,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5724,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5800,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5842,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5873,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5902,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5931,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5960,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +5989,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6018,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6049,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6078,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6136,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,13 +7852,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7867,6 +7863,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7913,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +7990,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8066,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8108,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8139,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8168,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8197,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8226,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8255,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8284,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8315,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8344,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8373,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8402,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,13 +10118,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10133,6 +10129,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10143,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10176,41 +10179,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10255,58 +10258,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10331,23 +10334,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10366,7 +10369,7 @@
       <c r="E6" s="75">
         <v>861881051084201</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="62" t="s">
         <v>65</v>
       </c>
@@ -10382,7 +10385,9 @@
       <c r="K6" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="66" t="s">
+        <v>74</v>
+      </c>
       <c r="M6" s="66" t="s">
         <v>69</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10434,7 +10439,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10463,7 +10468,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10492,7 +10497,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10521,7 +10526,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10550,7 +10555,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10579,7 +10584,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10610,7 +10615,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10639,7 +10644,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10668,7 +10673,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10697,7 +10702,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12413,13 +12418,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12431,6 +12429,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12474,39 +12479,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12551,58 +12556,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12627,23 +12632,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12669,7 +12674,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12700,7 +12705,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12729,7 +12734,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12758,7 +12763,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12787,7 +12792,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12816,7 +12821,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12845,7 +12850,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12876,7 +12881,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12905,7 +12910,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12934,7 +12939,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12963,7 +12968,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14679,13 +14684,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14697,6 +14695,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14740,39 +14745,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14817,58 +14822,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14893,23 +14898,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14935,7 +14940,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14966,7 +14971,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14995,7 +15000,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15024,7 +15029,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15053,7 +15058,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15082,7 +15087,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15111,7 +15116,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15142,7 +15147,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15171,7 +15176,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15200,7 +15205,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15229,7 +15234,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16945,13 +16950,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16963,6 +16961,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17006,39 +17011,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17083,58 +17088,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17159,23 +17164,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17201,7 +17206,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17232,7 +17237,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17261,7 +17266,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17290,7 +17295,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17319,7 +17324,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17348,7 +17353,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17377,7 +17382,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17408,7 +17413,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17437,7 +17442,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17466,7 +17471,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17495,7 +17500,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19211,13 +19216,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19229,6 +19227,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19272,39 +19277,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19349,58 +19354,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19425,23 +19430,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19467,7 +19472,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19498,7 +19503,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19527,7 +19532,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19556,7 +19561,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19585,7 +19590,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19614,7 +19619,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19643,7 +19648,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19674,7 +19679,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19703,7 +19708,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19732,7 +19737,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19761,7 +19766,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20992,6 +20997,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21003,13 +21015,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
